--- a/Jogos_do_Dia/2023-10-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>
@@ -718,10 +718,10 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
         <v>1.85</v>
@@ -951,94 +951,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>CD Eldense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Elche CF</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>2.95</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.9</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.8</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.6</v>
+        <v>0.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="AH4" t="n">
         <v>1.25</v>
@@ -1053,10 +1053,10 @@
         <v>2.4</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AN4" t="n">
         <v>2.4</v>
@@ -1065,7 +1065,7 @@
         <v>1.47</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.26</v>
@@ -1090,94 +1090,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CD Eldense</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elche CF</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.95</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.25</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF5" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8</v>
-      </c>
       <c r="AG5" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="AH5" t="n">
         <v>1.25</v>
@@ -1192,10 +1192,10 @@
         <v>2.4</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AN5" t="n">
         <v>2.4</v>
@@ -1204,7 +1204,7 @@
         <v>1.47</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.26</v>
@@ -1386,10 +1386,10 @@
         <v>6.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
@@ -1407,13 +1407,13 @@
         <v>7.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.53</v>
@@ -1525,13 +1525,13 @@
         <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.54</v>
@@ -1549,7 +1549,7 @@
         <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S8" t="n">
         <v>2.4</v>
@@ -1664,13 +1664,13 @@
         <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>2.85</v>
       </c>
       <c r="S9" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
@@ -1803,13 +1803,13 @@
         <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.55</v>
@@ -1824,10 +1824,10 @@
         <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
         <v>2.4</v>
@@ -1875,10 +1875,10 @@
         <v>1.95</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.25</v>
@@ -1945,10 +1945,10 @@
         <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.53</v>
@@ -1963,10 +1963,10 @@
         <v>6.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
         <v>2.55</v>
@@ -2081,13 +2081,13 @@
         <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="L12" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="M12" t="n">
         <v>1.55</v>
@@ -2108,10 +2108,10 @@
         <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
@@ -2153,10 +2153,10 @@
         <v>3.1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.26</v>
@@ -2220,13 +2220,13 @@
         <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.4</v>
@@ -2247,10 +2247,10 @@
         <v>3.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
